--- a/harshini/last3weeks.xlsx
+++ b/harshini/last3weeks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -27,19 +27,7 @@
     <t>Open</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -881,13 +869,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,20 +890,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43160</v>
       </c>
@@ -918,22 +899,10 @@
         <v>1513.599976</v>
       </c>
       <c r="C2">
-        <v>1518.48999</v>
-      </c>
-      <c r="D2">
-        <v>1465</v>
-      </c>
-      <c r="E2">
         <v>1493.4499510000001</v>
       </c>
-      <c r="F2">
-        <v>1493.4499510000001</v>
-      </c>
-      <c r="G2">
-        <v>6835200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43161</v>
       </c>
@@ -941,22 +910,10 @@
         <v>1469.099976</v>
       </c>
       <c r="C3">
-        <v>1501.0500489999999</v>
-      </c>
-      <c r="D3">
-        <v>1455.01001</v>
-      </c>
-      <c r="E3">
         <v>1500.25</v>
       </c>
-      <c r="F3">
-        <v>1500.25</v>
-      </c>
-      <c r="G3">
-        <v>6587600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43164</v>
       </c>
@@ -964,22 +921,10 @@
         <v>1494.23999</v>
       </c>
       <c r="C4">
-        <v>1525.380005</v>
-      </c>
-      <c r="D4">
-        <v>1481</v>
-      </c>
-      <c r="E4">
         <v>1523.6099850000001</v>
       </c>
-      <c r="F4">
-        <v>1523.6099850000001</v>
-      </c>
-      <c r="G4">
-        <v>5233900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43165</v>
       </c>
@@ -987,22 +932,10 @@
         <v>1533.1999510000001</v>
       </c>
       <c r="C5">
-        <v>1542.130005</v>
-      </c>
-      <c r="D5">
-        <v>1528</v>
-      </c>
-      <c r="E5">
         <v>1537.6400149999999</v>
       </c>
-      <c r="F5">
-        <v>1537.6400149999999</v>
-      </c>
-      <c r="G5">
-        <v>4561700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43166</v>
       </c>
@@ -1010,22 +943,10 @@
         <v>1526.5200199999999</v>
       </c>
       <c r="C6">
-        <v>1545.900024</v>
-      </c>
-      <c r="D6">
-        <v>1522.51001</v>
-      </c>
-      <c r="E6">
         <v>1545</v>
       </c>
-      <c r="F6">
-        <v>1545</v>
-      </c>
-      <c r="G6">
-        <v>4174100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43167</v>
       </c>
@@ -1033,22 +954,10 @@
         <v>1550</v>
       </c>
       <c r="C7">
-        <v>1554.880005</v>
-      </c>
-      <c r="D7">
-        <v>1545.25</v>
-      </c>
-      <c r="E7">
         <v>1551.8599850000001</v>
       </c>
-      <c r="F7">
-        <v>1551.8599850000001</v>
-      </c>
-      <c r="G7">
-        <v>3862600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43168</v>
       </c>
@@ -1056,22 +965,10 @@
         <v>1563.5</v>
       </c>
       <c r="C8">
-        <v>1578.9399410000001</v>
-      </c>
-      <c r="D8">
-        <v>1559.079956</v>
-      </c>
-      <c r="E8">
         <v>1578.8900149999999</v>
       </c>
-      <c r="F8">
-        <v>1578.8900149999999</v>
-      </c>
-      <c r="G8">
-        <v>4534300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43171</v>
       </c>
@@ -1079,22 +976,10 @@
         <v>1592.599976</v>
       </c>
       <c r="C9">
-        <v>1605.329956</v>
-      </c>
-      <c r="D9">
-        <v>1586.6999510000001</v>
-      </c>
-      <c r="E9">
         <v>1598.3900149999999</v>
       </c>
-      <c r="F9">
-        <v>1598.3900149999999</v>
-      </c>
-      <c r="G9">
-        <v>5174200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43172</v>
       </c>
@@ -1102,22 +987,10 @@
         <v>1615.959961</v>
       </c>
       <c r="C10">
-        <v>1617.540039</v>
-      </c>
-      <c r="D10">
-        <v>1578.01001</v>
-      </c>
-      <c r="E10">
         <v>1588.1800539999999</v>
       </c>
-      <c r="F10">
-        <v>1588.1800539999999</v>
-      </c>
-      <c r="G10">
-        <v>6531900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43173</v>
       </c>
@@ -1125,22 +998,10 @@
         <v>1597</v>
       </c>
       <c r="C11">
-        <v>1606.4399410000001</v>
-      </c>
-      <c r="D11">
-        <v>1590.8900149999999</v>
-      </c>
-      <c r="E11">
         <v>1591</v>
       </c>
-      <c r="F11">
-        <v>1591</v>
-      </c>
-      <c r="G11">
-        <v>4259400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43174</v>
       </c>
@@ -1148,22 +1009,10 @@
         <v>1595</v>
       </c>
       <c r="C12">
-        <v>1596.910034</v>
-      </c>
-      <c r="D12">
-        <v>1578.1099850000001</v>
-      </c>
-      <c r="E12">
         <v>1582.3199460000001</v>
       </c>
-      <c r="F12">
-        <v>1582.3199460000001</v>
-      </c>
-      <c r="G12">
-        <v>4069700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43175</v>
       </c>
@@ -1171,22 +1020,10 @@
         <v>1583.4499510000001</v>
       </c>
       <c r="C13">
-        <v>1589.4399410000001</v>
-      </c>
-      <c r="D13">
-        <v>1567.5</v>
-      </c>
-      <c r="E13">
         <v>1571.6800539999999</v>
       </c>
-      <c r="F13">
-        <v>1571.6800539999999</v>
-      </c>
-      <c r="G13">
-        <v>5425000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43178</v>
       </c>
@@ -1194,22 +1031,10 @@
         <v>1554.530029</v>
       </c>
       <c r="C14">
-        <v>1561.660034</v>
-      </c>
-      <c r="D14">
-        <v>1525.349976</v>
-      </c>
-      <c r="E14">
         <v>1544.9300539999999</v>
       </c>
-      <c r="F14">
-        <v>1544.9300539999999</v>
-      </c>
-      <c r="G14">
-        <v>6580800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43179</v>
       </c>
@@ -1217,22 +1042,10 @@
         <v>1550.339966</v>
       </c>
       <c r="C15">
-        <v>1587</v>
-      </c>
-      <c r="D15">
-        <v>1545.410034</v>
-      </c>
-      <c r="E15">
         <v>1586.51001</v>
       </c>
-      <c r="F15">
-        <v>1586.51001</v>
-      </c>
-      <c r="G15">
-        <v>4581600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43180</v>
       </c>
@@ -1240,22 +1053,10 @@
         <v>1586.4499510000001</v>
       </c>
       <c r="C16">
-        <v>1590</v>
-      </c>
-      <c r="D16">
-        <v>1563.170044</v>
-      </c>
-      <c r="E16">
         <v>1581.8599850000001</v>
       </c>
-      <c r="F16">
-        <v>1581.8599850000001</v>
-      </c>
-      <c r="G16">
-        <v>4750800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43181</v>
       </c>
@@ -1263,22 +1064,10 @@
         <v>1565.469971</v>
       </c>
       <c r="C17">
-        <v>1573.849976</v>
-      </c>
-      <c r="D17">
-        <v>1542.400024</v>
-      </c>
-      <c r="E17">
         <v>1544.920044</v>
       </c>
-      <c r="F17">
-        <v>1544.920044</v>
-      </c>
-      <c r="G17">
-        <v>6320600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43182</v>
       </c>
@@ -1286,22 +1075,10 @@
         <v>1539.01001</v>
       </c>
       <c r="C18">
-        <v>1549.0200199999999</v>
-      </c>
-      <c r="D18">
-        <v>1495.3599850000001</v>
-      </c>
-      <c r="E18">
         <v>1495.5600589999999</v>
       </c>
-      <c r="F18">
-        <v>1495.5600589999999</v>
-      </c>
-      <c r="G18">
-        <v>8006000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43185</v>
       </c>
@@ -1309,22 +1086,10 @@
         <v>1530</v>
       </c>
       <c r="C19">
-        <v>1556.98999</v>
-      </c>
-      <c r="D19">
-        <v>1499.25</v>
-      </c>
-      <c r="E19">
         <v>1555.8599850000001</v>
       </c>
-      <c r="F19">
-        <v>1555.8599850000001</v>
-      </c>
-      <c r="G19">
-        <v>5624700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43186</v>
       </c>
@@ -1332,22 +1097,10 @@
         <v>1572.400024</v>
       </c>
       <c r="C20">
-        <v>1575.969971</v>
-      </c>
-      <c r="D20">
-        <v>1482.3199460000001</v>
-      </c>
-      <c r="E20">
         <v>1497.0500489999999</v>
       </c>
-      <c r="F20">
-        <v>1497.0500489999999</v>
-      </c>
-      <c r="G20">
-        <v>6999600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43187</v>
       </c>
@@ -1355,22 +1108,10 @@
         <v>1447</v>
       </c>
       <c r="C21">
-        <v>1455.900024</v>
-      </c>
-      <c r="D21">
-        <v>1386.170044</v>
-      </c>
-      <c r="E21">
         <v>1431.420044</v>
       </c>
-      <c r="F21">
-        <v>1431.420044</v>
-      </c>
-      <c r="G21">
-        <v>13705300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43188</v>
       </c>
@@ -1378,22 +1119,10 @@
         <v>1406</v>
       </c>
       <c r="C22">
-        <v>1455.469971</v>
-      </c>
-      <c r="D22">
-        <v>1365.1999510000001</v>
-      </c>
-      <c r="E22">
         <v>1447.339966</v>
       </c>
-      <c r="F22">
-        <v>1447.339966</v>
-      </c>
-      <c r="G22">
-        <v>12581100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43192</v>
       </c>
@@ -1401,22 +1130,10 @@
         <v>1417.619995</v>
       </c>
       <c r="C23">
-        <v>1421.3599850000001</v>
-      </c>
-      <c r="D23">
-        <v>1355</v>
-      </c>
-      <c r="E23">
         <v>1371.98999</v>
       </c>
-      <c r="F23">
-        <v>1371.98999</v>
-      </c>
-      <c r="G23">
-        <v>10463600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43193</v>
       </c>
@@ -1424,22 +1141,10 @@
         <v>1391.380005</v>
       </c>
       <c r="C24">
-        <v>1414</v>
-      </c>
-      <c r="D24">
-        <v>1355.329956</v>
-      </c>
-      <c r="E24">
         <v>1392.0500489999999</v>
       </c>
-      <c r="F24">
-        <v>1392.0500489999999</v>
-      </c>
-      <c r="G24">
-        <v>10231200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43194</v>
       </c>
@@ -1447,22 +1152,10 @@
         <v>1358.23999</v>
       </c>
       <c r="C25">
-        <v>1415.3900149999999</v>
-      </c>
-      <c r="D25">
-        <v>1352.880005</v>
-      </c>
-      <c r="E25">
         <v>1410.5699460000001</v>
       </c>
-      <c r="F25">
-        <v>1410.5699460000001</v>
-      </c>
-      <c r="G25">
-        <v>6982300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43195</v>
       </c>
@@ -1470,22 +1163,10 @@
         <v>1441.98999</v>
       </c>
       <c r="C26">
-        <v>1459.5600589999999</v>
-      </c>
-      <c r="D26">
-        <v>1427.0699460000001</v>
-      </c>
-      <c r="E26">
         <v>1451.75</v>
       </c>
-      <c r="F26">
-        <v>1451.75</v>
-      </c>
-      <c r="G26">
-        <v>6272300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43196</v>
       </c>
@@ -1493,19 +1174,7 @@
         <v>1429.969971</v>
       </c>
       <c r="C27">
-        <v>1452.501953</v>
-      </c>
-      <c r="D27">
-        <v>1400.26001</v>
-      </c>
-      <c r="E27">
         <v>1405.2299800000001</v>
-      </c>
-      <c r="F27">
-        <v>1405.2299800000001</v>
-      </c>
-      <c r="G27">
-        <v>5882257</v>
       </c>
     </row>
   </sheetData>
